--- a/oase-root/libs/commonlibs/template_testrequest.xlsx
+++ b/oase-root/libs/commonlibs/template_testrequest.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="1" r:id="rId1"/>
-    <sheet name="記述例" sheetId="2" r:id="rId2"/>
+    <sheet name="example" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,216 +22,89 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
-    <t>例</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>↑リクエストを増やす場合は、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>行目以降をコピー、挿入によって行を増やしてください</t>
-    </r>
+    <t>2019-5-17 1:20:30</t>
+  </si>
+  <si>
+    <t>["abc", "def", "hoge"]</t>
+  </si>
+  <si>
+    <t>06:00</t>
+  </si>
+  <si>
+    <t>["-9", "9", "hoge"]</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>["-2", "いい", "aa"]</t>
+  </si>
+  <si>
+    <t>01:01</t>
+  </si>
+  <si>
+    <t>Request Name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Rule 1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Rule 2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Rule 3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>E.g)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Request name</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>リクエスト名</t>
-    </r>
+    <t>Event start date/time</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>イベント発生日時</t>
-    </r>
+    <t>↑If you want to add more requests, copy 4th row and insert more.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>記述できるリクエスト数の上限は</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> %s </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>件です</t>
-    </r>
+    <t>The maximum number of requests that can be written is XXX.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>リクエスト名</t>
-  </si>
-  <si>
-    <t>イベント発生日時</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>条件名</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>条件名</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>条件名</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>条件名D</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ルール１用</t>
-  </si>
-  <si>
-    <t>2019-5-17 1:20:30</t>
-  </si>
-  <si>
-    <t>["abc", "def", "hoge"]</t>
-  </si>
-  <si>
-    <t>06:00</t>
-  </si>
-  <si>
-    <t>実行しました。</t>
-  </si>
-  <si>
-    <t>ルール2用</t>
-  </si>
-  <si>
-    <t>["-9", "9", "hoge"]</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>ルール3用</t>
-  </si>
-  <si>
-    <t>["-2", "いい", "aa"]</t>
-  </si>
-  <si>
-    <t>01:01</t>
-  </si>
-  <si>
-    <t>任意で記載してください。（無記入可）
-どのルールの為のリクエストかわかるように記述することをお勧めします。</t>
-  </si>
-  <si>
-    <t>イベント発生日時は以下のような記述である必要があります。
+    <t>Event start date/time</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Conditional name A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Conditional name B</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Conditional name C</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Conditional name D</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Free input field.(Blank space allowed)
+We recommend to write so you know whatrequests are for what rules.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>The format for Event start time/date is as following.
 yyyy-m-d h:d:ｓ
 1) 2019-1-19 1:2:3
 2) 2019-01-19 1:2:3
@@ -240,86 +113,68 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「条件式：等しい（数値）」とした場合、以下のような記述である必要があります。
+    <t xml:space="preserve">Example of bad notations
+1) 2019-1-91:2:3
+2) 2019-1-9  10:53:
+3) 2019-1-9
+Not following the format will lead to an error.
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Example of bad notations
+1) a
+2) "1"
+3) 1,2,3
+Not following the format will lead to an error.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>If "Conditional expression:equal (numeric value)", follow the format below.
 1) 1
 2) 10
 3) 100</t>
-    <rPh sb="5" eb="6">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>スウチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">「条件式：含まない」とした場合、以下のようにダブルコーテーションで囲う必要があります。
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If "Conditional exprettion: Not including", you will need to enclose it in double quotations.
+Example)
 1) ["hoge"]
 2) ["aa", "1", "hoge"]
 3) [""]
 </t>
-    <rPh sb="1" eb="3">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>シキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">NGパターン：
-1) 2019-1-91:2:3
-2) 2019-1-9  10:53:
-3) 2019-1-9
-記述フォーマットが異なる為エラーとなります。
-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NGパターン：
-1) a
-2) "1"
-3) 1,2,3
-記述フォーマットが異なる為エラーとなります。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NGパターン：
-1) ["ああ", aa, "b"] 
-ダブルコーテーションで囲われていない為エラーとなります。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NGパターン：
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Example of bad notations
+1) [aa, "b"] 
+Not enclosing in double quotations will lead to an error.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Example of bad notations
 1) 6:00
 2) 13:0
 3) :
-記述フォーマットが異なる為エラーとなります。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「条件式：時間[HH:mm]」とした場合、以下のような記述である必要があります。
+Not following the format will lead to an error.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If "Conditional exprettion:Time[HH:mm], follow the format below.
 HH:mm
 1) 06:00
 2) 13:00
 3) 01:01
 </t>
-    <rPh sb="1" eb="3">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>シキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「条件式：左記以外（イベント発生日時や含む/含まない以外の項目）」とした場合、条件名に紐づいた想定しうるリクエスト内容を記載してください。
-また、ダブルコーテーションで囲う必要はありません。</t>
-    <rPh sb="1" eb="3">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>シキ</t>
-    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>if "Conditional expressions:Other than left notations (items other than "Event start date/time" and "Not including"), write the possible request contents linked with the condition name.
+These do not need to be enclosed in double quotations.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Executed.</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -330,7 +185,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-m\-d\ h:mm:dd"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,6 +267,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -484,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -500,9 +362,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -545,15 +404,21 @@
     <xf numFmtId="20" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -838,44 +703,44 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="21" customWidth="1"/>
-    <col min="2" max="2" width="9" style="21"/>
-    <col min="3" max="3" width="13.875" style="21" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="21"/>
+    <col min="1" max="1" width="2.5" style="19" customWidth="1"/>
+    <col min="2" max="2" width="9" style="19"/>
+    <col min="3" max="3" width="13.875" style="19" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
+    <row r="2" spans="2:4" ht="45.75" customHeight="1">
+      <c r="B2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="8"/>
+    <row r="3" spans="2:4" ht="12.75" customHeight="1">
+      <c r="B3" s="7"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="8"/>
+    <row r="4" spans="2:4" ht="12.75" customHeight="1">
+      <c r="B4" s="7"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
+    <row r="5" spans="2:4" ht="12.75" customHeight="1">
+      <c r="B5" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="12.75" customHeight="1">
+      <c r="B6" s="24" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -889,11 +754,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="5" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="6" width="23.5" customWidth="1"/>
@@ -902,143 +769,143 @@
     <col min="9" max="16384" width="10.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
+    <row r="2" spans="1:7" ht="19.5" customHeight="1">
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="C2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="8" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="8" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D4" s="3">
         <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="10">
+        <v>4</v>
+      </c>
+      <c r="G4" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:7" s="8" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="22">
+      <c r="D5" s="20">
         <v>100</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="19">
+        <v>6</v>
+      </c>
+      <c r="G5" s="18">
         <v>0.46597222222222218</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="11"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="15"/>
+    <row r="6" spans="1:7" s="8" customFormat="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="12" t="s">
+    <row r="8" spans="1:7" ht="68.25" customHeight="1">
+      <c r="B8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="15" customFormat="1" ht="68.25" customHeight="1">
+      <c r="C9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="16" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:7" s="16" customFormat="1" ht="9.75" x14ac:dyDescent="0.4"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:7" s="15" customFormat="1" ht="9.75"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
